--- a/data/pca/factorExposure/factorExposure_2013-06-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-26.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002117196007775804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001694295983160509</v>
+      </c>
+      <c r="C2">
+        <v>0.0320944574276177</v>
+      </c>
+      <c r="D2">
+        <v>-0.003157609127804407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002538772770571534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006517274429317132</v>
+      </c>
+      <c r="C4">
+        <v>0.08391636176656915</v>
+      </c>
+      <c r="D4">
+        <v>-0.08161472632024813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004994867727298277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01367711302330584</v>
+      </c>
+      <c r="C6">
+        <v>0.1061637508892162</v>
+      </c>
+      <c r="D6">
+        <v>-0.03833071784606375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001209772010765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005150267353061494</v>
+      </c>
+      <c r="C7">
+        <v>0.05199782838649229</v>
+      </c>
+      <c r="D7">
+        <v>-0.03739227661097975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002847902585419244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006063296672802566</v>
+      </c>
+      <c r="C8">
+        <v>0.03831879282021469</v>
+      </c>
+      <c r="D8">
+        <v>-0.04108997152241149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005939603268435934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004397209756294079</v>
+      </c>
+      <c r="C9">
+        <v>0.06774140957969696</v>
+      </c>
+      <c r="D9">
+        <v>-0.07125040282844385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004623057492387111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006129031477827031</v>
+      </c>
+      <c r="C10">
+        <v>0.08578457649009551</v>
+      </c>
+      <c r="D10">
+        <v>0.2134982921056299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.006165153669499215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005267878617482573</v>
+      </c>
+      <c r="C11">
+        <v>0.07848084009021566</v>
+      </c>
+      <c r="D11">
+        <v>-0.06655859114171746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001102536353635004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004125372143251394</v>
+      </c>
+      <c r="C12">
+        <v>0.06292435386634454</v>
+      </c>
+      <c r="D12">
+        <v>-0.04609850529393641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002635414844039579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009096266493137748</v>
+      </c>
+      <c r="C13">
+        <v>0.06983302612413127</v>
+      </c>
+      <c r="D13">
+        <v>-0.07258812592549078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.004037336365924169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.002225578270868212</v>
+      </c>
+      <c r="C14">
+        <v>0.047585434237058</v>
+      </c>
+      <c r="D14">
+        <v>-0.01591421220284627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00366694510905249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005948006780501547</v>
+      </c>
+      <c r="C15">
+        <v>0.03749552457628263</v>
+      </c>
+      <c r="D15">
+        <v>-0.04453138983438166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003767855767347033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00526027464300592</v>
+      </c>
+      <c r="C16">
+        <v>0.06405491343773854</v>
+      </c>
+      <c r="D16">
+        <v>-0.05024005868001601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001680691033282077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00954224326792898</v>
+      </c>
+      <c r="C20">
+        <v>0.06491727632917367</v>
+      </c>
+      <c r="D20">
+        <v>-0.0588764865179479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.0031754902259907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01017900138129303</v>
+      </c>
+      <c r="C21">
+        <v>0.02641429422916731</v>
+      </c>
+      <c r="D21">
+        <v>-0.03704156749961948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01771444309702784</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007096648614760445</v>
+      </c>
+      <c r="C22">
+        <v>0.0863093227147244</v>
+      </c>
+      <c r="D22">
+        <v>-0.105366252765962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01797237400153565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006850198341879456</v>
+      </c>
+      <c r="C23">
+        <v>0.08887728070518558</v>
+      </c>
+      <c r="D23">
+        <v>-0.1024096658511369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004603971216228821</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004901152278466121</v>
+      </c>
+      <c r="C24">
+        <v>0.07178065738484642</v>
+      </c>
+      <c r="D24">
+        <v>-0.06095705322932687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005834526787678533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003196963227960301</v>
+      </c>
+      <c r="C25">
+        <v>0.07649376479882665</v>
+      </c>
+      <c r="D25">
+        <v>-0.06443650070816341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.00709061202644373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003898473721213774</v>
+      </c>
+      <c r="C26">
+        <v>0.04359764412313542</v>
+      </c>
+      <c r="D26">
+        <v>-0.01770021148018802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005255838242809352</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.000545936887950219</v>
+      </c>
+      <c r="C28">
+        <v>0.1343099815497462</v>
+      </c>
+      <c r="D28">
+        <v>0.3026316829142126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.00167731153857436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003632436785700388</v>
+      </c>
+      <c r="C29">
+        <v>0.05037508163921611</v>
+      </c>
+      <c r="D29">
+        <v>-0.02108418274787446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.006816649263582659</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009865469294323333</v>
+      </c>
+      <c r="C30">
+        <v>0.1335178972338545</v>
+      </c>
+      <c r="D30">
+        <v>-0.1128496936260644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001912716823295419</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006423419807339401</v>
+      </c>
+      <c r="C31">
+        <v>0.04730635911465834</v>
+      </c>
+      <c r="D31">
+        <v>-0.03562211598762811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006688973540234947</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004218933663152671</v>
+      </c>
+      <c r="C32">
+        <v>0.04116804420185814</v>
+      </c>
+      <c r="D32">
+        <v>-0.01720256411963338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004398260024436159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.00818312389440335</v>
+      </c>
+      <c r="C33">
+        <v>0.08134156736286725</v>
+      </c>
+      <c r="D33">
+        <v>-0.07809675664022556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.006008317784822563</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003868088343390025</v>
+      </c>
+      <c r="C34">
+        <v>0.05618267883038857</v>
+      </c>
+      <c r="D34">
+        <v>-0.04482939520291576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004249830158057957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005085612052248266</v>
+      </c>
+      <c r="C35">
+        <v>0.03905446530105088</v>
+      </c>
+      <c r="D35">
+        <v>-0.01737884939581273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00528858089516173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001161826869106797</v>
+      </c>
+      <c r="C36">
+        <v>0.02658839729014311</v>
+      </c>
+      <c r="D36">
+        <v>-0.0199629437896699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002160139133421472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009392854865240406</v>
+      </c>
+      <c r="C38">
+        <v>0.03521104460236428</v>
+      </c>
+      <c r="D38">
+        <v>-0.03172222872549756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01552850050394755</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0006440740660617263</v>
+      </c>
+      <c r="C39">
+        <v>0.1114934490481534</v>
+      </c>
+      <c r="D39">
+        <v>-0.08779758590353494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008841224389733813</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002739541165815203</v>
+      </c>
+      <c r="C40">
+        <v>0.08580146127741951</v>
+      </c>
+      <c r="D40">
+        <v>-0.03190386948001656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001003433437511251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007560271197749182</v>
+      </c>
+      <c r="C41">
+        <v>0.0408827131074371</v>
+      </c>
+      <c r="D41">
+        <v>-0.03561030422920789</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002076344593031498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003177021372401627</v>
+      </c>
+      <c r="C43">
+        <v>0.05142415668011917</v>
+      </c>
+      <c r="D43">
+        <v>-0.02916433755742314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00529563703319229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.004058817966002032</v>
+      </c>
+      <c r="C44">
+        <v>0.1048215070977381</v>
+      </c>
+      <c r="D44">
+        <v>-0.08681716839686197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002455819006625476</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002604502222090931</v>
+      </c>
+      <c r="C46">
+        <v>0.03383089861423666</v>
+      </c>
+      <c r="D46">
+        <v>-0.03426481647038052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.00297034983657519</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002969439203495241</v>
+      </c>
+      <c r="C47">
+        <v>0.04129076113422912</v>
+      </c>
+      <c r="D47">
+        <v>-0.02771948954630501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003602079359310095</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006633288835615382</v>
+      </c>
+      <c r="C48">
+        <v>0.03286068526960755</v>
+      </c>
+      <c r="D48">
+        <v>-0.02371247013574456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01682649368643441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01436138563452278</v>
+      </c>
+      <c r="C49">
+        <v>0.1656108962884512</v>
+      </c>
+      <c r="D49">
+        <v>-0.03968704646817352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.000352406839807128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00421368922056553</v>
+      </c>
+      <c r="C50">
+        <v>0.04333253777907834</v>
+      </c>
+      <c r="D50">
+        <v>-0.03840319721709741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002447255756340484</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004158668833133864</v>
+      </c>
+      <c r="C51">
+        <v>0.01994132589854328</v>
+      </c>
+      <c r="D51">
+        <v>-0.03453690865007856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0003475208105577798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0204536780529279</v>
+      </c>
+      <c r="C53">
+        <v>0.1629567516746767</v>
+      </c>
+      <c r="D53">
+        <v>-0.05846606999201461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00134837570205176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008809314674383822</v>
+      </c>
+      <c r="C54">
+        <v>0.05450610683675508</v>
+      </c>
+      <c r="D54">
+        <v>-0.04223313370466096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.006050866154576089</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009927698202222465</v>
+      </c>
+      <c r="C55">
+        <v>0.1042866655107643</v>
+      </c>
+      <c r="D55">
+        <v>-0.05541165043074481</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001533544257246145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01964066503499201</v>
+      </c>
+      <c r="C56">
+        <v>0.168139293057869</v>
+      </c>
+      <c r="D56">
+        <v>-0.05861363919926529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008651620778012563</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01985216576543559</v>
+      </c>
+      <c r="C58">
+        <v>0.1000413716419603</v>
+      </c>
+      <c r="D58">
+        <v>-0.08089297125159005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.008562420849734142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009223849875296069</v>
+      </c>
+      <c r="C59">
+        <v>0.1751939851664898</v>
+      </c>
+      <c r="D59">
+        <v>0.27029690558741</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008951233506857661</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02337153666308531</v>
+      </c>
+      <c r="C60">
+        <v>0.220440153173882</v>
+      </c>
+      <c r="D60">
+        <v>-0.03269345625164406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01793810004675432</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001704394218912062</v>
+      </c>
+      <c r="C61">
+        <v>0.09374624410265814</v>
+      </c>
+      <c r="D61">
+        <v>-0.06585048519082966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1883567995210676</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1450006722672358</v>
+      </c>
+      <c r="C62">
+        <v>0.06809698360691709</v>
+      </c>
+      <c r="D62">
+        <v>-0.0528443787678259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.002902364742087378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006912538784507109</v>
+      </c>
+      <c r="C63">
+        <v>0.05849194534910014</v>
+      </c>
+      <c r="D63">
+        <v>-0.02809116695254557</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006513125606632154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01586700855034962</v>
+      </c>
+      <c r="C64">
+        <v>0.09723442229346467</v>
+      </c>
+      <c r="D64">
+        <v>-0.06774157781529262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0003194133595943612</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01721248727254186</v>
+      </c>
+      <c r="C65">
+        <v>0.1108517113765326</v>
+      </c>
+      <c r="D65">
+        <v>-0.03561271732615105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01232230719728725</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01283745071729189</v>
+      </c>
+      <c r="C66">
+        <v>0.1482907980314512</v>
+      </c>
+      <c r="D66">
+        <v>-0.1262214975543206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001838761454626931</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01543615538849357</v>
+      </c>
+      <c r="C67">
+        <v>0.06408828623908257</v>
+      </c>
+      <c r="D67">
+        <v>-0.04388672977180176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.008639517724076923</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001675754249002593</v>
+      </c>
+      <c r="C68">
+        <v>0.1182485950181629</v>
+      </c>
+      <c r="D68">
+        <v>0.2656613154442369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003545474506041977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005355902736991352</v>
+      </c>
+      <c r="C69">
+        <v>0.04660159306067687</v>
+      </c>
+      <c r="D69">
+        <v>-0.04361875431695741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.0014192196262885</v>
+      </c>
+      <c r="C70">
+        <v>0.001823229221297772</v>
+      </c>
+      <c r="D70">
+        <v>-0.001669808987517896</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004247628442655217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006400031309412268</v>
+      </c>
+      <c r="C71">
+        <v>0.1212816466382432</v>
+      </c>
+      <c r="D71">
+        <v>0.2799509821487988</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008713956973559331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01569323926637653</v>
+      </c>
+      <c r="C72">
+        <v>0.1476442117380703</v>
+      </c>
+      <c r="D72">
+        <v>-0.03345732955072526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01456583556746789</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03210757187918609</v>
+      </c>
+      <c r="C73">
+        <v>0.2835100504058975</v>
+      </c>
+      <c r="D73">
+        <v>-0.05338468939556133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005973815458559218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002094439811689206</v>
+      </c>
+      <c r="C74">
+        <v>0.1020711786821113</v>
+      </c>
+      <c r="D74">
+        <v>-0.04663027460267285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.007236087785311062</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01082313181036611</v>
+      </c>
+      <c r="C75">
+        <v>0.1302561469463321</v>
+      </c>
+      <c r="D75">
+        <v>-0.04733974935344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01033916634465037</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02135831789700482</v>
+      </c>
+      <c r="C76">
+        <v>0.1417113470868607</v>
+      </c>
+      <c r="D76">
+        <v>-0.07578900724891324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.007673209233805686</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02293427995224545</v>
+      </c>
+      <c r="C77">
+        <v>0.1264232239489216</v>
+      </c>
+      <c r="D77">
+        <v>-0.07331551564702697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008150850350467764</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01489223268634257</v>
+      </c>
+      <c r="C78">
+        <v>0.08959840275194184</v>
+      </c>
+      <c r="D78">
+        <v>-0.06871688838275813</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02588708487563561</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03724265950668907</v>
+      </c>
+      <c r="C79">
+        <v>0.1537215272166668</v>
+      </c>
+      <c r="D79">
+        <v>-0.04149805135462348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003847517443636256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01084171605863659</v>
+      </c>
+      <c r="C80">
+        <v>0.04135661030414489</v>
+      </c>
+      <c r="D80">
+        <v>-0.03539058061450424</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0001997702567064948</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01492971749720715</v>
+      </c>
+      <c r="C81">
+        <v>0.119383033782071</v>
+      </c>
+      <c r="D81">
+        <v>-0.06437183495187411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005911762313749748</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01922402536211886</v>
+      </c>
+      <c r="C82">
+        <v>0.1388181619150184</v>
+      </c>
+      <c r="D82">
+        <v>-0.05270288283368366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008468684262799521</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009625294559274107</v>
+      </c>
+      <c r="C83">
+        <v>0.05141157652348285</v>
+      </c>
+      <c r="D83">
+        <v>-0.05323048210311997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01407223421225343</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01242562994614577</v>
+      </c>
+      <c r="C84">
+        <v>0.03091925825343832</v>
+      </c>
+      <c r="D84">
+        <v>-0.001274876110483109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01617440101724601</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02869398650675992</v>
+      </c>
+      <c r="C85">
+        <v>0.1277471548351407</v>
+      </c>
+      <c r="D85">
+        <v>-0.05788080933242168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003655929837466564</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004858600061236304</v>
+      </c>
+      <c r="C86">
+        <v>0.04724756932418068</v>
+      </c>
+      <c r="D86">
+        <v>-0.02331016741397761</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008356887312293669</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01074039886726608</v>
+      </c>
+      <c r="C87">
+        <v>0.124462853533607</v>
+      </c>
+      <c r="D87">
+        <v>-0.08199647707109539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01473854371861457</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002894231630166813</v>
+      </c>
+      <c r="C88">
+        <v>0.07156020377797721</v>
+      </c>
+      <c r="D88">
+        <v>-0.01897643017691461</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.0155353020378624</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001673906683863876</v>
+      </c>
+      <c r="C89">
+        <v>0.1722916057848729</v>
+      </c>
+      <c r="D89">
+        <v>0.3381118113911906</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002395419761684938</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007923030790395759</v>
+      </c>
+      <c r="C90">
+        <v>0.153739387717047</v>
+      </c>
+      <c r="D90">
+        <v>0.3125118346893564</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0004639168478776445</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01029370329639673</v>
+      </c>
+      <c r="C91">
+        <v>0.1021301122620505</v>
+      </c>
+      <c r="D91">
+        <v>-0.02351717974643897</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.0165752559341943</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001159049956595913</v>
+      </c>
+      <c r="C92">
+        <v>0.1606065544785361</v>
+      </c>
+      <c r="D92">
+        <v>0.3193591207140906</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001862712012083872</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00529566934658013</v>
+      </c>
+      <c r="C93">
+        <v>0.1353055689281712</v>
+      </c>
+      <c r="D93">
+        <v>0.3092022559817851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0007090798267973354</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02217671248289733</v>
+      </c>
+      <c r="C94">
+        <v>0.1548248491009154</v>
+      </c>
+      <c r="D94">
+        <v>-0.03701127215719464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007095675156861995</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01686360497379292</v>
+      </c>
+      <c r="C95">
+        <v>0.1206120904892667</v>
+      </c>
+      <c r="D95">
+        <v>-0.06962000130555265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004844657978381417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03332429771529626</v>
+      </c>
+      <c r="C97">
+        <v>0.1674982363552283</v>
+      </c>
+      <c r="D97">
+        <v>-0.04708981161192563</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.009688293579431108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03643691851831949</v>
+      </c>
+      <c r="C98">
+        <v>0.2576648580916199</v>
+      </c>
+      <c r="D98">
+        <v>-0.05014530653418343</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9793128523480058</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9822918973675501</v>
+      </c>
+      <c r="C99">
+        <v>-0.1101252030768833</v>
+      </c>
+      <c r="D99">
+        <v>0.03629258430683579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001627920357728205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003678708803253835</v>
+      </c>
+      <c r="C101">
+        <v>0.05046676032191914</v>
+      </c>
+      <c r="D101">
+        <v>-0.02110236386516586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
